--- a/qualtcom/Organizacional/Configuracion/PlanConfiguración.xlsx
+++ b/qualtcom/Organizacional/Configuracion/PlanConfiguración.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zepeda\Desktop\qualtcom\Organizacional\Configuracion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zepeda\escuela1\qualtcom\Organizacional\Configuracion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -199,12 +199,6 @@
     <t>Sistema de versionado de documentos que respalda todos los cambios generados en un repositorio a nivel nube, este método depende del uso de llaves SSH para la transferencia de archivos.</t>
   </si>
   <si>
-    <t>JIRA</t>
-  </si>
-  <si>
-    <t>201.168.207.98:9005</t>
-  </si>
-  <si>
     <t>Sistema de levantamiento de tickets que permite tener una mejor organización al momento de generar soporte con diversos usuarios de la empresa.</t>
   </si>
   <si>
@@ -427,6 +421,12 @@
   </si>
   <si>
     <t>Respaldos Se realizan cada semana en dias viernes, Dichos respaldos generan un comprimido semanal con los archivos agregados hasta la fecha y se versionan en el repositorio de GITHUB con el comentario 'respaldo de sistema' cuyo responsible de generar dicha actividad sera : Jovanny Zepeda</t>
+  </si>
+  <si>
+    <t>Mantis</t>
+  </si>
+  <si>
+    <t>192.168.220.112/xampp/mantis(Red local qualtop)</t>
   </si>
 </sst>
 </file>
@@ -827,10 +827,46 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -838,42 +874,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1303,11 +1303,11 @@
   <sheetData>
     <row r="1" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
     </row>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="24"/>
@@ -1316,19 +1316,19 @@
     </row>
     <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
     </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
     </row>
     <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -1370,11 +1370,11 @@
     </row>
     <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
     </row>
     <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
@@ -1382,7 +1382,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D10" s="36"/>
     </row>
@@ -1392,7 +1392,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D11" s="36"/>
     </row>
@@ -1402,7 +1402,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D12" s="36"/>
     </row>
@@ -1412,27 +1412,27 @@
         <v>12</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D13" s="36"/>
     </row>
     <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D14" s="36"/>
     </row>
     <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
     </row>
     <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -1467,20 +1467,20 @@
     <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="35" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D19" s="36"/>
     </row>
     <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
     </row>
     <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
@@ -1504,11 +1504,11 @@
     </row>
     <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
     </row>
     <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="35" t="s">
@@ -1538,11 +1538,11 @@
       <c r="D26" s="37"/>
     </row>
     <row r="27" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
     </row>
     <row r="28" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="35" t="s">
@@ -1560,11 +1560,11 @@
       <c r="D29" s="25"/>
     </row>
     <row r="30" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
     </row>
     <row r="31" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="14" t="s">
@@ -1576,11 +1576,11 @@
       <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
     </row>
     <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="18" t="s">
@@ -1596,7 +1596,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D34" s="15"/>
     </row>
@@ -1605,7 +1605,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D35" s="15"/>
     </row>
@@ -1614,7 +1614,7 @@
         <v>37</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D36" s="15"/>
     </row>
@@ -1623,16 +1623,16 @@
         <v>38</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D37" s="15"/>
     </row>
     <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D38" s="15"/>
     </row>
@@ -1648,7 +1648,7 @@
         <v>33</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D40" s="17"/>
     </row>
@@ -1665,7 +1665,7 @@
         <v>39</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D42" s="20"/>
     </row>
@@ -1682,7 +1682,7 @@
         <v>41</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D44" s="20"/>
     </row>
@@ -1699,7 +1699,7 @@
         <v>43</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D46" s="20"/>
     </row>
@@ -1709,11 +1709,11 @@
       <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="22" t="s">
@@ -1727,11 +1727,11 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="57" t="s">
+      <c r="B50" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
     </row>
     <row r="51" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="23" t="s">
@@ -1755,22 +1755,22 @@
       <c r="D53" s="27"/>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="C54" s="56"/>
+      <c r="B54" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="44"/>
       <c r="D54" s="27"/>
     </row>
     <row r="55" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="C55" s="50"/>
+      <c r="B55" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="51"/>
       <c r="D55" s="27"/>
     </row>
     <row r="56" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="51"/>
-      <c r="C56" s="52"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="53"/>
       <c r="D56" s="27"/>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1780,22 +1780,22 @@
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5"/>
-      <c r="B58" s="48" t="s">
+      <c r="B58" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="48"/>
+      <c r="C58" s="46"/>
       <c r="D58" s="24"/>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="C59" s="53"/>
+      <c r="B59" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="54"/>
       <c r="D59" s="24"/>
     </row>
     <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="53"/>
-      <c r="C60" s="53"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
       <c r="D60" s="24"/>
     </row>
     <row r="61" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -1805,17 +1805,17 @@
     </row>
     <row r="62" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A62" s="5"/>
-      <c r="B62" s="47" t="s">
+      <c r="B62" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C62" s="47"/>
+      <c r="C62" s="49"/>
       <c r="D62" s="24"/>
     </row>
     <row r="63" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="C63" s="46"/>
+      <c r="B63" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="48"/>
       <c r="D63" s="24"/>
     </row>
     <row r="64" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -1869,13 +1869,13 @@
     </row>
     <row r="71" spans="1:9" ht="63" x14ac:dyDescent="0.2">
       <c r="B71" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D71" s="34" t="s">
         <v>57</v>
-      </c>
-      <c r="C71" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D71" s="34" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -2325,6 +2325,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B55:C56"/>
+    <mergeCell ref="B59:C60"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B27:D27"/>
@@ -2332,17 +2343,6 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B55:C56"/>
-    <mergeCell ref="B59:C60"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B15:D15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -2372,36 +2372,36 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
@@ -2409,100 +2409,100 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>33</v>
       </c>
       <c r="G7" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="H8" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="I8" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="E9" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="I9" s="12" t="s">
         <v>93</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -2510,21 +2510,21 @@
         <v>28</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>100</v>
       </c>
       <c r="J11">
         <v>51</v>
@@ -2532,13 +2532,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="13" t="s">
         <v>101</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="J12">
         <v>50</v>
@@ -2546,18 +2546,18 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
@@ -2567,12 +2567,12 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
